--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Mfng-Notch1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Mfng-Notch1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>20.089847</v>
+        <v>26.56908266666666</v>
       </c>
       <c r="H2">
-        <v>60.269541</v>
+        <v>79.70724799999999</v>
       </c>
       <c r="I2">
-        <v>0.8908882414095812</v>
+        <v>0.7506383589294218</v>
       </c>
       <c r="J2">
-        <v>0.8908882414095813</v>
+        <v>0.7506383589294219</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>60.14337933333334</v>
+        <v>68.63737500000001</v>
       </c>
       <c r="N2">
-        <v>180.430138</v>
+        <v>205.912125</v>
       </c>
       <c r="O2">
-        <v>0.5373443142606099</v>
+        <v>0.5415701538216162</v>
       </c>
       <c r="P2">
-        <v>0.5373443142606098</v>
+        <v>0.5415701538216162</v>
       </c>
       <c r="Q2">
-        <v>1208.271288869629</v>
+        <v>1823.632090398</v>
       </c>
       <c r="R2">
-        <v>10874.44159982666</v>
+        <v>16412.688813582</v>
       </c>
       <c r="S2">
-        <v>0.4787137311630721</v>
+        <v>0.4065233315098125</v>
       </c>
       <c r="T2">
-        <v>0.4787137311630721</v>
+        <v>0.4065233315098126</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>20.089847</v>
+        <v>26.56908266666666</v>
       </c>
       <c r="H3">
-        <v>60.269541</v>
+        <v>79.70724799999999</v>
       </c>
       <c r="I3">
-        <v>0.8908882414095812</v>
+        <v>0.7506383589294218</v>
       </c>
       <c r="J3">
-        <v>0.8908882414095813</v>
+        <v>0.7506383589294219</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>33.150224</v>
       </c>
       <c r="O3">
-        <v>0.09872565958390839</v>
+        <v>0.08718851262838957</v>
       </c>
       <c r="P3">
-        <v>0.09872565958390837</v>
+        <v>0.08718851262838957</v>
       </c>
       <c r="Q3">
-        <v>221.9943093919093</v>
+        <v>293.5903472915057</v>
       </c>
       <c r="R3">
-        <v>1997.948784527184</v>
+        <v>2642.313125623552</v>
       </c>
       <c r="S3">
-        <v>0.08795352924870911</v>
+        <v>0.06544704203687152</v>
       </c>
       <c r="T3">
-        <v>0.08795352924870911</v>
+        <v>0.06544704203687153</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>20.089847</v>
+        <v>26.56908266666666</v>
       </c>
       <c r="H4">
-        <v>60.269541</v>
+        <v>79.70724799999999</v>
       </c>
       <c r="I4">
-        <v>0.8908882414095812</v>
+        <v>0.7506383589294218</v>
       </c>
       <c r="J4">
-        <v>0.8908882414095813</v>
+        <v>0.7506383589294219</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.25483666666667</v>
+        <v>16.21089566666667</v>
       </c>
       <c r="N4">
-        <v>36.76451</v>
+        <v>48.632687</v>
       </c>
       <c r="O4">
-        <v>0.1094894712937444</v>
+        <v>0.1279089892319285</v>
       </c>
       <c r="P4">
-        <v>0.1094894712937444</v>
+        <v>0.1279089892319285</v>
       </c>
       <c r="Q4">
-        <v>246.1977936433233</v>
+        <v>430.7086270683751</v>
       </c>
       <c r="R4">
-        <v>2215.78014278991</v>
+        <v>3876.377643615376</v>
       </c>
       <c r="S4">
-        <v>0.09754288253374875</v>
+        <v>0.0960133937693759</v>
       </c>
       <c r="T4">
-        <v>0.09754288253374875</v>
+        <v>0.09601339376937591</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>20.089847</v>
+        <v>26.56908266666666</v>
       </c>
       <c r="H5">
-        <v>60.269541</v>
+        <v>79.70724799999999</v>
       </c>
       <c r="I5">
-        <v>0.8908882414095812</v>
+        <v>0.7506383589294218</v>
       </c>
       <c r="J5">
-        <v>0.8908882414095813</v>
+        <v>0.7506383589294219</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>15.358189</v>
+        <v>20.32546233333333</v>
       </c>
       <c r="N5">
-        <v>46.074567</v>
+        <v>60.976387</v>
       </c>
       <c r="O5">
-        <v>0.1372160265679646</v>
+        <v>0.1603741949973873</v>
       </c>
       <c r="P5">
-        <v>0.1372160265679646</v>
+        <v>0.1603741949973873</v>
       </c>
       <c r="Q5">
-        <v>308.543667207083</v>
+        <v>540.0288889725529</v>
       </c>
       <c r="R5">
-        <v>2776.893004863747</v>
+        <v>4860.260000752975</v>
       </c>
       <c r="S5">
-        <v>0.1222441446023444</v>
+        <v>0.1203830225474659</v>
       </c>
       <c r="T5">
-        <v>0.1222441446023444</v>
+        <v>0.1203830225474659</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>20.089847</v>
+        <v>26.56908266666666</v>
       </c>
       <c r="H6">
-        <v>60.269541</v>
+        <v>79.70724799999999</v>
       </c>
       <c r="I6">
-        <v>0.8908882414095812</v>
+        <v>0.7506383589294218</v>
       </c>
       <c r="J6">
-        <v>0.8908882414095813</v>
+        <v>0.7506383589294219</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>13.120599</v>
+        <v>10.513928</v>
       </c>
       <c r="N6">
-        <v>39.361797</v>
+        <v>31.541784</v>
       </c>
       <c r="O6">
-        <v>0.1172245282937728</v>
+        <v>0.08295814932067838</v>
       </c>
       <c r="P6">
-        <v>0.1172245282937728</v>
+        <v>0.08295814932067838</v>
       </c>
       <c r="Q6">
-        <v>263.590826458353</v>
+        <v>279.3454221833813</v>
       </c>
       <c r="R6">
-        <v>2372.317438125177</v>
+        <v>2514.108799650432</v>
       </c>
       <c r="S6">
-        <v>0.1044339538617069</v>
+        <v>0.06227156906589595</v>
       </c>
       <c r="T6">
-        <v>0.1044339538617069</v>
+        <v>0.06227156906589595</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>0.524991</v>
       </c>
       <c r="I7">
-        <v>0.007760276600511317</v>
+        <v>0.004944072121179194</v>
       </c>
       <c r="J7">
-        <v>0.007760276600511319</v>
+        <v>0.004944072121179195</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>60.14337933333334</v>
+        <v>68.63737500000001</v>
       </c>
       <c r="N7">
-        <v>180.430138</v>
+        <v>205.912125</v>
       </c>
       <c r="O7">
-        <v>0.5373443142606099</v>
+        <v>0.5415701538216162</v>
       </c>
       <c r="P7">
-        <v>0.5373443142606098</v>
+        <v>0.5415701538216162</v>
       </c>
       <c r="Q7">
-        <v>10.52491095319533</v>
+        <v>12.011334712875</v>
       </c>
       <c r="R7">
-        <v>94.72419857875799</v>
+        <v>108.102012415875</v>
       </c>
       <c r="S7">
-        <v>0.004169940508374411</v>
+        <v>0.00267756189917218</v>
       </c>
       <c r="T7">
-        <v>0.004169940508374411</v>
+        <v>0.002677561899172181</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>0.524991</v>
       </c>
       <c r="I8">
-        <v>0.007760276600511317</v>
+        <v>0.004944072121179194</v>
       </c>
       <c r="J8">
-        <v>0.007760276600511319</v>
+        <v>0.004944072121179195</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>33.150224</v>
       </c>
       <c r="O8">
-        <v>0.09872565958390839</v>
+        <v>0.08718851262838957</v>
       </c>
       <c r="P8">
-        <v>0.09872565958390837</v>
+        <v>0.08718851262838957</v>
       </c>
       <c r="Q8">
         <v>1.933729916442667</v>
@@ -948,10 +948,10 @@
         <v>17.403569247984</v>
       </c>
       <c r="S8">
-        <v>0.0007661384259390501</v>
+        <v>0.000431066294573101</v>
       </c>
       <c r="T8">
-        <v>0.0007661384259390502</v>
+        <v>0.0004310662945731011</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>0.524991</v>
       </c>
       <c r="I9">
-        <v>0.007760276600511317</v>
+        <v>0.004944072121179194</v>
       </c>
       <c r="J9">
-        <v>0.007760276600511319</v>
+        <v>0.004944072121179195</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>12.25483666666667</v>
+        <v>16.21089566666667</v>
       </c>
       <c r="N9">
-        <v>36.76451</v>
+        <v>48.632687</v>
       </c>
       <c r="O9">
-        <v>0.1094894712937444</v>
+        <v>0.1279089892319285</v>
       </c>
       <c r="P9">
-        <v>0.1094894712937444</v>
+        <v>0.1279089892319285</v>
       </c>
       <c r="Q9">
-        <v>2.144559652156667</v>
+        <v>2.836858108979667</v>
       </c>
       <c r="R9">
-        <v>19.30103686941</v>
+        <v>25.531722980817</v>
       </c>
       <c r="S9">
-        <v>0.0008496685820832</v>
+        <v>0.0006323912677097874</v>
       </c>
       <c r="T9">
-        <v>0.0008496685820832</v>
+        <v>0.0006323912677097875</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>0.524991</v>
       </c>
       <c r="I10">
-        <v>0.007760276600511317</v>
+        <v>0.004944072121179194</v>
       </c>
       <c r="J10">
-        <v>0.007760276600511319</v>
+        <v>0.004944072121179195</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>15.358189</v>
+        <v>20.32546233333333</v>
       </c>
       <c r="N10">
-        <v>46.074567</v>
+        <v>60.976387</v>
       </c>
       <c r="O10">
-        <v>0.1372160265679646</v>
+        <v>0.1603741949973873</v>
       </c>
       <c r="P10">
-        <v>0.1372160265679646</v>
+        <v>0.1603741949973873</v>
       </c>
       <c r="Q10">
-        <v>2.687637000433</v>
+        <v>3.556894931946333</v>
       </c>
       <c r="R10">
-        <v>24.188733003897</v>
+        <v>32.012054387517</v>
       </c>
       <c r="S10">
-        <v>0.001064834320190515</v>
+        <v>0.0007929015864431386</v>
       </c>
       <c r="T10">
-        <v>0.001064834320190515</v>
+        <v>0.0007929015864431387</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>0.524991</v>
       </c>
       <c r="I11">
-        <v>0.007760276600511317</v>
+        <v>0.004944072121179194</v>
       </c>
       <c r="J11">
-        <v>0.007760276600511319</v>
+        <v>0.004944072121179195</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>13.120599</v>
+        <v>10.513928</v>
       </c>
       <c r="N11">
-        <v>39.361797</v>
+        <v>31.541784</v>
       </c>
       <c r="O11">
-        <v>0.1172245282937728</v>
+        <v>0.08295814932067838</v>
       </c>
       <c r="P11">
-        <v>0.1172245282937728</v>
+        <v>0.08295814932067838</v>
       </c>
       <c r="Q11">
-        <v>2.296065463203</v>
+        <v>1.839905858216</v>
       </c>
       <c r="R11">
-        <v>20.664589168827</v>
+        <v>16.559152723944</v>
       </c>
       <c r="S11">
-        <v>0.0009096947639241418</v>
+        <v>0.0004101510732809867</v>
       </c>
       <c r="T11">
-        <v>0.0009096947639241418</v>
+        <v>0.0004101510732809868</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.4735023333333333</v>
+        <v>5.094400666666666</v>
       </c>
       <c r="H12">
-        <v>1.420507</v>
+        <v>15.283202</v>
       </c>
       <c r="I12">
-        <v>0.0209975546875328</v>
+        <v>0.1439286634067062</v>
       </c>
       <c r="J12">
-        <v>0.0209975546875328</v>
+        <v>0.1439286634067062</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>60.14337933333334</v>
+        <v>68.63737500000001</v>
       </c>
       <c r="N12">
-        <v>180.430138</v>
+        <v>205.912125</v>
       </c>
       <c r="O12">
-        <v>0.5373443142606099</v>
+        <v>0.5415701538216162</v>
       </c>
       <c r="P12">
-        <v>0.5373443142606098</v>
+        <v>0.5415701538216162</v>
       </c>
       <c r="Q12">
-        <v>28.47803044888511</v>
+        <v>349.66628895825</v>
       </c>
       <c r="R12">
-        <v>256.302274039966</v>
+        <v>3146.99660062425</v>
       </c>
       <c r="S12">
-        <v>0.01128291662472197</v>
+        <v>0.0779474683805095</v>
       </c>
       <c r="T12">
-        <v>0.01128291662472197</v>
+        <v>0.07794746838050952</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.4735023333333333</v>
+        <v>5.094400666666666</v>
       </c>
       <c r="H13">
-        <v>1.420507</v>
+        <v>15.283202</v>
       </c>
       <c r="I13">
-        <v>0.0209975546875328</v>
+        <v>0.1439286634067062</v>
       </c>
       <c r="J13">
-        <v>0.0209975546875328</v>
+        <v>0.1439286634067062</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>33.150224</v>
       </c>
       <c r="O13">
-        <v>0.09872565958390839</v>
+        <v>0.08718851262838957</v>
       </c>
       <c r="P13">
-        <v>0.09872565958390837</v>
+        <v>0.08718851262838957</v>
       </c>
       <c r="Q13">
-        <v>5.232236138174222</v>
+        <v>56.29350774858311</v>
       </c>
       <c r="R13">
-        <v>47.090125243568</v>
+        <v>506.641569737248</v>
       </c>
       <c r="S13">
-        <v>0.002072997436175863</v>
+        <v>0.01254892608702284</v>
       </c>
       <c r="T13">
-        <v>0.002072997436175863</v>
+        <v>0.01254892608702284</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.4735023333333333</v>
+        <v>5.094400666666666</v>
       </c>
       <c r="H14">
-        <v>1.420507</v>
+        <v>15.283202</v>
       </c>
       <c r="I14">
-        <v>0.0209975546875328</v>
+        <v>0.1439286634067062</v>
       </c>
       <c r="J14">
-        <v>0.0209975546875328</v>
+        <v>0.1439286634067062</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>12.25483666666667</v>
+        <v>16.21089566666667</v>
       </c>
       <c r="N14">
-        <v>36.76451</v>
+        <v>48.632687</v>
       </c>
       <c r="O14">
-        <v>0.1094894712937444</v>
+        <v>0.1279089892319285</v>
       </c>
       <c r="P14">
-        <v>0.1094894712937444</v>
+        <v>0.1279089892319285</v>
       </c>
       <c r="Q14">
-        <v>5.802693756285556</v>
+        <v>82.58479769153045</v>
       </c>
       <c r="R14">
-        <v>52.22424380657</v>
+        <v>743.263179223774</v>
       </c>
       <c r="S14">
-        <v>0.00229901116119945</v>
+        <v>0.01840976985785425</v>
       </c>
       <c r="T14">
-        <v>0.00229901116119945</v>
+        <v>0.01840976985785425</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.4735023333333333</v>
+        <v>5.094400666666666</v>
       </c>
       <c r="H15">
-        <v>1.420507</v>
+        <v>15.283202</v>
       </c>
       <c r="I15">
-        <v>0.0209975546875328</v>
+        <v>0.1439286634067062</v>
       </c>
       <c r="J15">
-        <v>0.0209975546875328</v>
+        <v>0.1439286634067062</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>15.358189</v>
+        <v>20.32546233333333</v>
       </c>
       <c r="N15">
-        <v>46.074567</v>
+        <v>60.976387</v>
       </c>
       <c r="O15">
-        <v>0.1372160265679646</v>
+        <v>0.1603741949973873</v>
       </c>
       <c r="P15">
-        <v>0.1372160265679646</v>
+        <v>0.1603741949973873</v>
       </c>
       <c r="Q15">
-        <v>7.272138327274334</v>
+        <v>103.5460488612415</v>
       </c>
       <c r="R15">
-        <v>65.449244945469</v>
+        <v>931.914439751174</v>
       </c>
       <c r="S15">
-        <v>0.00288120102186679</v>
+        <v>0.02308244353090043</v>
       </c>
       <c r="T15">
-        <v>0.00288120102186679</v>
+        <v>0.02308244353090043</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.4735023333333333</v>
+        <v>5.094400666666666</v>
       </c>
       <c r="H16">
-        <v>1.420507</v>
+        <v>15.283202</v>
       </c>
       <c r="I16">
-        <v>0.0209975546875328</v>
+        <v>0.1439286634067062</v>
       </c>
       <c r="J16">
-        <v>0.0209975546875328</v>
+        <v>0.1439286634067062</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>13.120599</v>
+        <v>10.513928</v>
       </c>
       <c r="N16">
-        <v>39.361797</v>
+        <v>31.541784</v>
       </c>
       <c r="O16">
-        <v>0.1172245282937728</v>
+        <v>0.08295814932067838</v>
       </c>
       <c r="P16">
-        <v>0.1172245282937728</v>
+        <v>0.08295814932067838</v>
       </c>
       <c r="Q16">
-        <v>6.212634241230999</v>
+        <v>53.56216181248533</v>
       </c>
       <c r="R16">
-        <v>55.91370817107899</v>
+        <v>482.059456312368</v>
       </c>
       <c r="S16">
-        <v>0.00246142844356873</v>
+        <v>0.01194005555041919</v>
       </c>
       <c r="T16">
-        <v>0.00246142844356873</v>
+        <v>0.01194005555041919</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.005337333333333334</v>
+        <v>0.05498833333333333</v>
       </c>
       <c r="H17">
-        <v>0.016012</v>
+        <v>0.164965</v>
       </c>
       <c r="I17">
-        <v>0.0002366851030348848</v>
+        <v>0.001553548265532792</v>
       </c>
       <c r="J17">
-        <v>0.0002366851030348849</v>
+        <v>0.001553548265532792</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>60.14337933333334</v>
+        <v>68.63737500000001</v>
       </c>
       <c r="N17">
-        <v>180.430138</v>
+        <v>205.912125</v>
       </c>
       <c r="O17">
-        <v>0.5373443142606099</v>
+        <v>0.5415701538216162</v>
       </c>
       <c r="P17">
-        <v>0.5373443142606098</v>
+        <v>0.5415701538216162</v>
       </c>
       <c r="Q17">
-        <v>0.3210052632951111</v>
+        <v>3.774254855625</v>
       </c>
       <c r="R17">
-        <v>2.889047369656</v>
+        <v>33.968293700625</v>
       </c>
       <c r="S17">
-        <v>0.000127181394385982</v>
+        <v>0.000841355373133899</v>
       </c>
       <c r="T17">
-        <v>0.000127181394385982</v>
+        <v>0.0008413553731338991</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.005337333333333334</v>
+        <v>0.05498833333333333</v>
       </c>
       <c r="H18">
-        <v>0.016012</v>
+        <v>0.164965</v>
       </c>
       <c r="I18">
-        <v>0.0002366851030348848</v>
+        <v>0.001553548265532792</v>
       </c>
       <c r="J18">
-        <v>0.0002366851030348849</v>
+        <v>0.001553548265532792</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>33.150224</v>
       </c>
       <c r="O18">
-        <v>0.09872565958390839</v>
+        <v>0.08718851262838957</v>
       </c>
       <c r="P18">
-        <v>0.09872565958390837</v>
+        <v>0.08718851262838957</v>
       </c>
       <c r="Q18">
-        <v>0.05897793185422223</v>
+        <v>0.607625189128889</v>
       </c>
       <c r="R18">
-        <v>0.530801386688</v>
+        <v>5.46862670216</v>
       </c>
       <c r="S18">
-        <v>2.336689291080432E-05</v>
+        <v>0.0001354515625682185</v>
       </c>
       <c r="T18">
-        <v>2.336689291080432E-05</v>
+        <v>0.0001354515625682185</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.005337333333333334</v>
+        <v>0.05498833333333333</v>
       </c>
       <c r="H19">
-        <v>0.016012</v>
+        <v>0.164965</v>
       </c>
       <c r="I19">
-        <v>0.0002366851030348848</v>
+        <v>0.001553548265532792</v>
       </c>
       <c r="J19">
-        <v>0.0002366851030348849</v>
+        <v>0.001553548265532792</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>12.25483666666667</v>
+        <v>16.21089566666667</v>
       </c>
       <c r="N19">
-        <v>36.76451</v>
+        <v>48.632687</v>
       </c>
       <c r="O19">
-        <v>0.1094894712937444</v>
+        <v>0.1279089892319285</v>
       </c>
       <c r="P19">
-        <v>0.1094894712937444</v>
+        <v>0.1279089892319285</v>
       </c>
       <c r="Q19">
-        <v>0.06540814823555556</v>
+        <v>0.8914101345505557</v>
       </c>
       <c r="R19">
-        <v>0.5886733341200001</v>
+        <v>8.022691210955001</v>
       </c>
       <c r="S19">
-        <v>2.591452679439495E-05</v>
+        <v>0.000198712788367315</v>
       </c>
       <c r="T19">
-        <v>2.591452679439495E-05</v>
+        <v>0.0001987127883673151</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>0.005337333333333334</v>
+        <v>0.05498833333333333</v>
       </c>
       <c r="H20">
-        <v>0.016012</v>
+        <v>0.164965</v>
       </c>
       <c r="I20">
-        <v>0.0002366851030348848</v>
+        <v>0.001553548265532792</v>
       </c>
       <c r="J20">
-        <v>0.0002366851030348849</v>
+        <v>0.001553548265532792</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>15.358189</v>
+        <v>20.32546233333333</v>
       </c>
       <c r="N20">
-        <v>46.074567</v>
+        <v>60.976387</v>
       </c>
       <c r="O20">
-        <v>0.1372160265679646</v>
+        <v>0.1603741949973873</v>
       </c>
       <c r="P20">
-        <v>0.1372160265679646</v>
+        <v>0.1603741949973873</v>
       </c>
       <c r="Q20">
-        <v>0.08197177408933334</v>
+        <v>1.117663297939445</v>
       </c>
       <c r="R20">
-        <v>0.7377459668040001</v>
+        <v>10.058969681455</v>
       </c>
       <c r="S20">
-        <v>3.247698938627621E-05</v>
+        <v>0.0002491490524744088</v>
       </c>
       <c r="T20">
-        <v>3.24769893862762E-05</v>
+        <v>0.0002491490524744088</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>0.005337333333333334</v>
+        <v>0.05498833333333333</v>
       </c>
       <c r="H21">
-        <v>0.016012</v>
+        <v>0.164965</v>
       </c>
       <c r="I21">
-        <v>0.0002366851030348848</v>
+        <v>0.001553548265532792</v>
       </c>
       <c r="J21">
-        <v>0.0002366851030348849</v>
+        <v>0.001553548265532792</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>13.120599</v>
+        <v>10.513928</v>
       </c>
       <c r="N21">
-        <v>39.361797</v>
+        <v>31.541784</v>
       </c>
       <c r="O21">
-        <v>0.1172245282937728</v>
+        <v>0.08295814932067838</v>
       </c>
       <c r="P21">
-        <v>0.1172245282937728</v>
+        <v>0.08295814932067838</v>
       </c>
       <c r="Q21">
-        <v>0.070029010396</v>
+        <v>0.5781433775066667</v>
       </c>
       <c r="R21">
-        <v>0.630261093564</v>
+        <v>5.20329039756</v>
       </c>
       <c r="S21">
-        <v>2.774529955742739E-05</v>
+        <v>0.0001288794889889502</v>
       </c>
       <c r="T21">
-        <v>2.774529955742738E-05</v>
+        <v>0.0001288794889889503</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.806672333333333</v>
+        <v>3.501848333333333</v>
       </c>
       <c r="H22">
-        <v>5.420017</v>
+        <v>10.505545</v>
       </c>
       <c r="I22">
-        <v>0.0801172421993397</v>
+        <v>0.09893535727715995</v>
       </c>
       <c r="J22">
-        <v>0.0801172421993397</v>
+        <v>0.09893535727715996</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>60.14337933333334</v>
+        <v>68.63737500000001</v>
       </c>
       <c r="N22">
-        <v>180.430138</v>
+        <v>205.912125</v>
       </c>
       <c r="O22">
-        <v>0.5373443142606099</v>
+        <v>0.5415701538216162</v>
       </c>
       <c r="P22">
-        <v>0.5373443142606098</v>
+        <v>0.5415701538216162</v>
       </c>
       <c r="Q22">
-        <v>108.6593794747051</v>
+        <v>240.357677248125</v>
       </c>
       <c r="R22">
-        <v>977.934415272346</v>
+        <v>2163.219095233125</v>
       </c>
       <c r="S22">
-        <v>0.04305054457005539</v>
+        <v>0.05358043665898807</v>
       </c>
       <c r="T22">
-        <v>0.04305054457005538</v>
+        <v>0.05358043665898808</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.806672333333333</v>
+        <v>3.501848333333333</v>
       </c>
       <c r="H23">
-        <v>5.420017</v>
+        <v>10.505545</v>
       </c>
       <c r="I23">
-        <v>0.0801172421993397</v>
+        <v>0.09893535727715995</v>
       </c>
       <c r="J23">
-        <v>0.0801172421993397</v>
+        <v>0.09893535727715996</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>33.150224</v>
       </c>
       <c r="O23">
-        <v>0.09872565958390839</v>
+        <v>0.08718851262838957</v>
       </c>
       <c r="P23">
-        <v>0.09872565958390837</v>
+        <v>0.08718851262838957</v>
       </c>
       <c r="Q23">
-        <v>19.96386418153422</v>
+        <v>38.69568555467556</v>
       </c>
       <c r="R23">
-        <v>179.674777633808</v>
+        <v>348.26116999208</v>
       </c>
       <c r="S23">
-        <v>0.00790962758017355</v>
+        <v>0.008626026647353895</v>
       </c>
       <c r="T23">
-        <v>0.00790962758017355</v>
+        <v>0.008626026647353896</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.806672333333333</v>
+        <v>3.501848333333333</v>
       </c>
       <c r="H24">
-        <v>5.420017</v>
+        <v>10.505545</v>
       </c>
       <c r="I24">
-        <v>0.0801172421993397</v>
+        <v>0.09893535727715995</v>
       </c>
       <c r="J24">
-        <v>0.0801172421993397</v>
+        <v>0.09893535727715996</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>12.25483666666667</v>
+        <v>16.21089566666667</v>
       </c>
       <c r="N24">
-        <v>36.76451</v>
+        <v>48.632687</v>
       </c>
       <c r="O24">
-        <v>0.1094894712937444</v>
+        <v>0.1279089892319285</v>
       </c>
       <c r="P24">
-        <v>0.1094894712937444</v>
+        <v>0.1279089892319285</v>
       </c>
       <c r="Q24">
-        <v>22.14047435518556</v>
+        <v>56.76809797215723</v>
       </c>
       <c r="R24">
-        <v>199.26426919667</v>
+        <v>510.912881749415</v>
       </c>
       <c r="S24">
-        <v>0.008771994489918571</v>
+        <v>0.01265472154862125</v>
       </c>
       <c r="T24">
-        <v>0.008771994489918567</v>
+        <v>0.01265472154862125</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1.806672333333333</v>
+        <v>3.501848333333333</v>
       </c>
       <c r="H25">
-        <v>5.420017</v>
+        <v>10.505545</v>
       </c>
       <c r="I25">
-        <v>0.0801172421993397</v>
+        <v>0.09893535727715995</v>
       </c>
       <c r="J25">
-        <v>0.0801172421993397</v>
+        <v>0.09893535727715996</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>15.358189</v>
+        <v>20.32546233333333</v>
       </c>
       <c r="N25">
-        <v>46.074567</v>
+        <v>60.976387</v>
       </c>
       <c r="O25">
-        <v>0.1372160265679646</v>
+        <v>0.1603741949973873</v>
       </c>
       <c r="P25">
-        <v>0.1372160265679646</v>
+        <v>0.1603741949973873</v>
       </c>
       <c r="Q25">
-        <v>27.74721515640433</v>
+        <v>71.17668639621277</v>
       </c>
       <c r="R25">
-        <v>249.724936407639</v>
+        <v>640.590177565915</v>
       </c>
       <c r="S25">
-        <v>0.01099336963417665</v>
+        <v>0.01586667828010344</v>
       </c>
       <c r="T25">
-        <v>0.01099336963417665</v>
+        <v>0.01586667828010344</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>1.806672333333333</v>
+        <v>3.501848333333333</v>
       </c>
       <c r="H26">
-        <v>5.420017</v>
+        <v>10.505545</v>
       </c>
       <c r="I26">
-        <v>0.0801172421993397</v>
+        <v>0.09893535727715995</v>
       </c>
       <c r="J26">
-        <v>0.0801172421993397</v>
+        <v>0.09893535727715996</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>13.120599</v>
+        <v>10.513928</v>
       </c>
       <c r="N26">
-        <v>39.361797</v>
+        <v>31.541784</v>
       </c>
       <c r="O26">
-        <v>0.1172245282937728</v>
+        <v>0.08295814932067838</v>
       </c>
       <c r="P26">
-        <v>0.1172245282937728</v>
+        <v>0.08295814932067838</v>
       </c>
       <c r="Q26">
-        <v>23.70462321006099</v>
+        <v>36.81818124358666</v>
       </c>
       <c r="R26">
-        <v>213.341608890549</v>
+        <v>331.36363119228</v>
       </c>
       <c r="S26">
-        <v>0.009391705925015545</v>
+        <v>0.0082074941420933</v>
       </c>
       <c r="T26">
-        <v>0.009391705925015542</v>
+        <v>0.008207494142093302</v>
       </c>
     </row>
   </sheetData>
